--- a/refactoring.xlsx
+++ b/refactoring.xlsx
@@ -5,128 +5,205 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfsai\Pictures\autonomo1\Trabajo-Aut-nomo-Refactoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfsai\Documents\ProyectoDS\Trabajo-Aut-nomo-Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Nombre del mal olor</t>
   </si>
   <si>
+    <t>Descripciòn corta del mal olor</t>
+  </si>
+  <si>
     <t>Lista de tècnicas de refactorizaciòn</t>
   </si>
   <si>
+    <t>Referencia</t>
+  </si>
+  <si>
     <t>Ejemplo 1</t>
   </si>
   <si>
+    <t>Duplicate Code</t>
+  </si>
+  <si>
+    <t>Codìgo duplicado en ambas opciones del if, por lo que se extrajo y se convirtiò en otro mètodo.</t>
+  </si>
+  <si>
+    <t>Extract Method</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Duplicate Code. Solucionado con: Extract Method</t>
+  </si>
+  <si>
+    <t>Ejemplo 2</t>
+  </si>
+  <si>
+    <t>Data Class</t>
+  </si>
+  <si>
+    <t>La clase Moreno poseìa un metodo que no le era ùtil, asi que se la pasò a la clase que màs lo usarà el mètodo.</t>
+  </si>
+  <si>
+    <t>Extract Method,Encapsulate field ,Move Method</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Data Class. Solucionado con: Extract Method, Move Method</t>
+  </si>
+  <si>
     <t>Ejemplo 3</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Habìa una expresiòn compleja de evaluar, ademàs es un mètodo muy largo y el nombre del mètodo no era el adecuado para su funcionalidad.</t>
+  </si>
+  <si>
+    <t>Extract Variable,Extract Method,Rename Method</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Commets. Solucionado con:Extract Variable, Extract method, Rename Method</t>
+  </si>
+  <si>
     <t>Ejemplo 4</t>
   </si>
   <si>
-    <t>Ejemplo 2</t>
+    <t>Long Method</t>
+  </si>
+  <si>
+    <t>Mètodo Main muy extenso, es mayor a 10 lìneas.</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Long Method. Solucionado con: Extract Method</t>
   </si>
   <si>
     <t>Ejemplo 5</t>
   </si>
   <si>
+    <t>Long Class</t>
+  </si>
+  <si>
+    <t>Clase Profesor es muy extensa , por lo que es ideal crear una clase AyudanteAcademico para que ayude con algunas de las funciones del Profesor.</t>
+  </si>
+  <si>
+    <t>Extract Class</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Long Class. Solucionado con: Extrat Class</t>
+  </si>
+  <si>
     <t>Ejemplo 6</t>
   </si>
   <si>
+    <t>Refused Bequest</t>
+  </si>
+  <si>
+    <t>Subclase aviòn no usaba mètodos de la superclase Transporte.</t>
+  </si>
+  <si>
+    <t>Push Down Field</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Refused Request. Solucionado con: Push down field</t>
+  </si>
+  <si>
     <t>Ejemplo 7</t>
   </si>
   <si>
+    <t>Feature Envy</t>
+  </si>
+  <si>
+    <t>La clase Estudiante usa màs atributos de la clase Phone que los atributos propios.</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Feature Envy. Solucionado con: Extract Method</t>
+  </si>
+  <si>
     <t>Ejemplo 8</t>
   </si>
   <si>
+    <t>Switch Statements</t>
+  </si>
+  <si>
+    <t>Muchas sentencias case en el switch que se abriò, esto ademas hace que se vea muy extensa e inentendible el programa.</t>
+  </si>
+  <si>
+    <t>Replace Conditional with Polymorphism</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Switch Statement. Solucionado con: Replace Conditional with Polymorphism</t>
+  </si>
+  <si>
     <t>Ejemplo 9</t>
   </si>
   <si>
+    <t>Primitive Obsession</t>
+  </si>
+  <si>
+    <t>Tipo de Dato primitivo cuando deberiamos ser màs especìficos en aquel tipo para que luego que se vaya desarrollando el programa no tengamos problemas de modificaciòn.</t>
+  </si>
+  <si>
+    <t>Replace Type Code with Class</t>
+  </si>
+  <si>
+    <t>Saigua D. (2018) Primitive Obsession. Solucionado con: Replace Type Code with class</t>
+  </si>
+  <si>
     <t>Ejemplo 10</t>
   </si>
   <si>
+    <t>Data Clumps</t>
+  </si>
+  <si>
+    <t>La repeticiòn de los campos lleva a hacer que se cree otra clase que pueda inclusive llevarse el metodo GetAddress que usa sòlo campos relacionados a Address.</t>
+  </si>
+  <si>
+    <t>Nadeem Mohammad . (2012) Data Clumps. Solucionado con: Extrat Class. Rescatado de: https://www.slideshare.net/nadeembtech/code-craftsmanship</t>
+  </si>
+  <si>
     <t>Ejemplo 11</t>
   </si>
   <si>
+    <t>Inappropriate Intimacy</t>
+  </si>
+  <si>
+    <t>La clase License usaba mètodo que contenìa campos de la clase Motorist y la clase motorist usaba metodo de la clase License, todo esto porque cada clase contenìa un atributo con tipo de la otra clase.</t>
+  </si>
+  <si>
+    <t>Move Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codemanship. (2010). Inapropiate Intimacy. Solucionado con: Move Method. Rescatado de: https://www.youtube.com/watch?v=xa6aS9ObJTg </t>
+  </si>
+  <si>
     <t>Ejemplo 12</t>
   </si>
   <si>
-    <t>Descripciòn corta del mal olor</t>
-  </si>
-  <si>
-    <t>Data class</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Long Method</t>
-  </si>
-  <si>
-    <t>Extract Method,Encapsulate field ,Move Method</t>
-  </si>
-  <si>
-    <t>Extract Method</t>
-  </si>
-  <si>
-    <t>Extract Variable,Extract Method,Rename Method</t>
-  </si>
-  <si>
-    <t>Duplicate Code</t>
-  </si>
-  <si>
-    <t>Codìgo duplicado en ambas opciones del if, por lo que se extrajo y se convirtiò en otro mètodo.</t>
-  </si>
-  <si>
-    <t>La clase Moreno poseìa un metodo que no le era ùtil, asi que se la pasò a la clase que màs lo usarà el mètodo.</t>
-  </si>
-  <si>
-    <t>Habìa una expresiòn compleja de evaluar, ademàs es un mètodo muy largo y el nombre del mètodo no era el adecuado para su funcionalidad.</t>
-  </si>
-  <si>
-    <t>Mètodo Main muy extenso, es mayor a 10 lìneas.</t>
-  </si>
-  <si>
-    <t>Refused Bequest</t>
-  </si>
-  <si>
-    <t>Long Class</t>
-  </si>
-  <si>
-    <t>Subclase aviòn no usaba mètodos de la superclase Transporte.</t>
-  </si>
-  <si>
-    <t>Push Down Field</t>
-  </si>
-  <si>
-    <t>Extract Class</t>
-  </si>
-  <si>
-    <t>Clase Profesor es muy extensa , por lo que es ideal crear una clase AyudanteAcademico para que ayude con algunas de las funciones del Profesor.</t>
-  </si>
-  <si>
-    <t>Feature Envy</t>
-  </si>
-  <si>
-    <t>La clase Estudiante usa màs atributos de la clase Phone que los atributos propios.</t>
+    <t>Shotgun Surgery</t>
+  </si>
+  <si>
+    <t>Existe una validaciòn en comùn en cada funciòn de la clase Account, por lo que al querer cambiar aquel paràmetro en una funciòn tendremos que cambiarla en todos los mètodos.</t>
+  </si>
+  <si>
+    <t>Shamik Miltra (2016). Shotgun Surgery. Solucionado con: Extract Metrhod. Rescatado de: https://dzone.com/articles/code-smell-shot-surgery</t>
   </si>
 </sst>
 </file>
@@ -136,16 +213,17 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,14 +235,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,16 +256,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,23 +275,91 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,264 +634,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="117.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="4" max="4" width="10.5703125"/>
+    <col min="5" max="5" width="165.85546875"/>
+    <col min="6" max="7" width="10.5703125"/>
+    <col min="8" max="8" width="22"/>
+    <col min="9" max="9" width="32.7109375"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="52">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="I12" r:id="rId1" display="https://www.slideshare.net/nadeembtech/code-craftsmanship"/>
+    <hyperlink ref="I14" r:id="rId2" display="https://dzone.com/articles/code-smell-shot-surgery"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>